--- a/biology/Médecine/Hémangiome_caverneux/Hémangiome_caverneux.xlsx
+++ b/biology/Médecine/Hémangiome_caverneux/Hémangiome_caverneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mangiome_caverneux</t>
+          <t>Hémangiome_caverneux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cavernomes, encore appelés angiomes caverneux, sont des malformations vasculaires situées essentiellement dans le cerveau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mangiome_caverneux</t>
+          <t>Hémangiome_caverneux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cavernome cérébral</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est responsable d'accidents vasculaires cérébraux de type hémorragique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mangiome_caverneux</t>
+          <t>Hémangiome_caverneux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Cavernome portal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cavernome portal, c'est l'ensemble formé par les vaisseaux collatéraux qui se forme en cas d’obstruction de la veine porte.
 Cet ensemble de vaisseaux collatéraux se développe à partir de petits vaisseaux préexistants du système porte mais prend une taille et un trajet contourné exagérés.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9mangiome_caverneux</t>
+          <t>Hémangiome_caverneux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Cavernome cérébelleux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette malformation, souvent congénitale, se situe sur l' un des hémisphères du cervelet. les troubles ressentis sont de la fatigue oculaire, des vertiges, et une sensation d'ébriété permanente. la microchirurgie par exérèse est pratiquée pour les cavernomes de taille conséquente. C'est une masse ronde.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9mangiome_caverneux</t>
+          <t>Hémangiome_caverneux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette malformation ne provoque le plus souvent aucun symptôme spécifique, mais elle est parfois à l’origine de troubles neurologiques divers (maux de tête, épilepsie, troubles de la vision et de la sensibilité au niveau des membres…).
 L'ablation du cavernome est chirurgicale, éventuellement aidée par un système robotisé.
